--- a/IT002-OOP/it002m22pmcl/it002m22pmcl1.xlsx
+++ b/IT002-OOP/it002m22pmcl/it002m22pmcl1.xlsx
@@ -472,7 +472,9 @@
       <c r="C2" t="n">
         <v>800</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>800</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -489,7 +491,9 @@
       <c r="C3" t="n">
         <v>800</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>800</v>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -506,7 +510,9 @@
       <c r="C4" t="n">
         <v>800</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>600</v>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -538,7 +544,9 @@
       <c r="C6" t="n">
         <v>800</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>800</v>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -555,7 +563,9 @@
       <c r="C7" t="n">
         <v>800</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>800</v>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -634,7 +644,9 @@
       <c r="C12" t="n">
         <v>800</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>600</v>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -649,7 +661,9 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>550</v>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -679,7 +693,9 @@
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>664.29</v>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -696,7 +712,9 @@
       <c r="C16" t="n">
         <v>800</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>800</v>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -711,7 +729,9 @@
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>550</v>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -743,7 +763,9 @@
       <c r="C19" t="n">
         <v>800</v>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>600</v>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -777,7 +799,9 @@
       <c r="C21" t="n">
         <v>800</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>600</v>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -794,7 +818,9 @@
       <c r="C22" t="n">
         <v>800</v>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>800</v>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -811,7 +837,9 @@
       <c r="C23" t="n">
         <v>800</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>600</v>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -828,7 +856,9 @@
       <c r="C24" t="n">
         <v>800</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>600</v>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>

--- a/IT002-OOP/it002m22pmcl/it002m22pmcl1.xlsx
+++ b/IT002-OOP/it002m22pmcl/it002m22pmcl1.xlsx
@@ -1,123 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\it002m22pmcl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B491D5-48BA-4F7F-AA61-D66682AC7DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Khoa</t>
-  </si>
-  <si>
-    <t>Phạm Nguyễn Minh Khoa</t>
-  </si>
-  <si>
-    <t>Mai Đình Khôi</t>
-  </si>
-  <si>
-    <t>Ngô Duy Lâm</t>
-  </si>
-  <si>
-    <t>Lê Thành Lộc</t>
-  </si>
-  <si>
-    <t>Trần Phước Long</t>
-  </si>
-  <si>
-    <t>Phạm Nhật Quang</t>
-  </si>
-  <si>
-    <t>Trần Phước Anh Quốc</t>
-  </si>
-  <si>
-    <t>Huỳnh Phước Tài</t>
-  </si>
-  <si>
-    <t>Nguyễn Thành Tài</t>
-  </si>
-  <si>
-    <t>Hồ Thị Thanh Thảo</t>
-  </si>
-  <si>
-    <t>Nguyễn Thiện</t>
-  </si>
-  <si>
-    <t>Lê Thị Thương</t>
-  </si>
-  <si>
-    <t>Trương Nguyễn Phước Trí</t>
-  </si>
-  <si>
-    <t>Nguyễn Thành Trung</t>
-  </si>
-  <si>
-    <t>Phan Quốc Tuấn</t>
-  </si>
-  <si>
-    <t>Trần Khiết Tường</t>
-  </si>
-  <si>
-    <t>Vy Anh Việt</t>
-  </si>
-  <si>
-    <t>Nguyễn Bá Kỳ Anh</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Anh</t>
-  </si>
-  <si>
-    <t>Trịnh Quốc Bảo</t>
-  </si>
-  <si>
-    <t>Nguyễn Thái Bình</t>
-  </si>
-  <si>
-    <t>Võ Thiên Phúc</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -456,356 +420,512 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>21520997</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>800</v>
-      </c>
-      <c r="D2">
-        <v>800</v>
-      </c>
-      <c r="E2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nguyễn Đình Khoa</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>800</v>
+      </c>
+      <c r="D2" t="n">
+        <v>800</v>
+      </c>
+      <c r="E2" t="n">
+        <v>800</v>
+      </c>
+      <c r="F2" t="n">
+        <v>800</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>21521003</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>800</v>
-      </c>
-      <c r="D3">
-        <v>800</v>
-      </c>
-      <c r="E3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Phạm Nguyễn Minh Khoa</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>800</v>
+      </c>
+      <c r="D3" t="n">
+        <v>800</v>
+      </c>
+      <c r="E3" t="n">
+        <v>800</v>
+      </c>
+      <c r="F3" t="n">
+        <v>800</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>21521008</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>800</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mai Đình Khôi</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>800</v>
+      </c>
+      <c r="D4" t="n">
         <v>600</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="F4" t="n">
+        <v>500</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>21521053</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ngô Duy Lâm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>21521087</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>800</v>
-      </c>
-      <c r="D6">
-        <v>800</v>
-      </c>
-      <c r="E6">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lê Thành Lộc</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>800</v>
+      </c>
+      <c r="D6" t="n">
+        <v>800</v>
+      </c>
+      <c r="E6" t="n">
+        <v>800</v>
+      </c>
+      <c r="F6" t="n">
+        <v>800</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>21521103</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>800</v>
-      </c>
-      <c r="D7">
-        <v>800</v>
-      </c>
-      <c r="E7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trần Phước Long</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>800</v>
+      </c>
+      <c r="D7" t="n">
+        <v>800</v>
+      </c>
+      <c r="E7" t="n">
+        <v>800</v>
+      </c>
+      <c r="F7" t="n">
+        <v>800</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>21521349</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Phạm Nhật Quang</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
         <v>750</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>21521360</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Trần Phước Anh Quốc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>21521392</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Huỳnh Phước Tài</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>21521397</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>800</v>
-      </c>
-      <c r="E11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nguyễn Thành Tài</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>800</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
         <v>150</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="F11" t="n">
+        <v>800</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>21521456</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>800</v>
-      </c>
-      <c r="D12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hồ Thị Thanh Thảo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>800</v>
+      </c>
+      <c r="D12" t="n">
         <v>600</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>600</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>21521461</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nguyễn Thiện</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
         <v>550</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="F13" t="n">
+        <v>300</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>21521509</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lê Thị Thương</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>700</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>21521571</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Trương Nguyễn Phước Trí</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
         <v>664.29</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>700</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>21521593</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>800</v>
-      </c>
-      <c r="D16">
-        <v>800</v>
-      </c>
-      <c r="E16">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nguyễn Thành Trung</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>800</v>
+      </c>
+      <c r="D16" t="n">
+        <v>800</v>
+      </c>
+      <c r="E16" t="n">
+        <v>800</v>
+      </c>
+      <c r="F16" t="n">
+        <v>800</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>21521637</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Phan Quốc Tuấn</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
         <v>550</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="F17" t="n">
+        <v>800</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>21521657</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Trần Khiết Tường</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>21521674</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>800</v>
-      </c>
-      <c r="D19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Vy Anh Việt</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>800</v>
+      </c>
+      <c r="D19" t="n">
         <v>600</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>21521827</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>800</v>
-      </c>
-      <c r="E20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nguyễn Bá Kỳ Anh</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>800</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
         <v>750</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="F20" t="n">
+        <v>500</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>21521830</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>800</v>
-      </c>
-      <c r="D21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Anh</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>800</v>
+      </c>
+      <c r="D21" t="n">
         <v>600</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>500</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>21521867</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>800</v>
-      </c>
-      <c r="D22">
-        <v>800</v>
-      </c>
-      <c r="E22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Trịnh Quốc Bảo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>800</v>
+      </c>
+      <c r="D22" t="n">
+        <v>800</v>
+      </c>
+      <c r="E22" t="n">
         <v>750</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="F22" t="n">
+        <v>800</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>21521878</v>
       </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <v>800</v>
-      </c>
-      <c r="D23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nguyễn Thái Bình</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>800</v>
+      </c>
+      <c r="D23" t="n">
         <v>600</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>750</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="F23" t="n">
+        <v>800</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>21522480</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24">
-        <v>800</v>
-      </c>
-      <c r="D24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Võ Thiên Phúc</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>800</v>
+      </c>
+      <c r="D24" t="n">
         <v>600</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>600</v>
       </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
